--- a/Code/Results/Cases/Case_4_251/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_251/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006263096405677</v>
+        <v>1.038545788421697</v>
       </c>
       <c r="D2">
-        <v>1.026648946996581</v>
+        <v>1.046034768426814</v>
       </c>
       <c r="E2">
-        <v>1.02419698127211</v>
+        <v>1.051740884680747</v>
       </c>
       <c r="F2">
-        <v>1.031407140839428</v>
+        <v>1.058391620907857</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045651219715635</v>
+        <v>1.035594522201494</v>
       </c>
       <c r="J2">
-        <v>1.028258079549103</v>
+        <v>1.043642641997537</v>
       </c>
       <c r="K2">
-        <v>1.037749095927234</v>
+        <v>1.048801334733194</v>
       </c>
       <c r="L2">
-        <v>1.03532920006109</v>
+        <v>1.05449154759217</v>
       </c>
       <c r="M2">
-        <v>1.042445600424398</v>
+        <v>1.06112398211486</v>
       </c>
       <c r="N2">
-        <v>1.013121938854099</v>
+        <v>1.018445592372575</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01072382152219</v>
+        <v>1.039503037091454</v>
       </c>
       <c r="D3">
-        <v>1.030033574456638</v>
+        <v>1.046780739190166</v>
       </c>
       <c r="E3">
-        <v>1.028199676083453</v>
+        <v>1.052655513223995</v>
       </c>
       <c r="F3">
-        <v>1.035480928600315</v>
+        <v>1.059320223615432</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046620545378705</v>
+        <v>1.035738884518591</v>
       </c>
       <c r="J3">
-        <v>1.030926352903816</v>
+        <v>1.044244689193413</v>
       </c>
       <c r="K3">
-        <v>1.040296067511364</v>
+        <v>1.049359037196958</v>
       </c>
       <c r="L3">
-        <v>1.038484016207555</v>
+        <v>1.0552186208268</v>
       </c>
       <c r="M3">
-        <v>1.045679092613776</v>
+        <v>1.061866318203179</v>
       </c>
       <c r="N3">
-        <v>1.014030385486349</v>
+        <v>1.018648242489969</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013554075096835</v>
+        <v>1.04012304373128</v>
       </c>
       <c r="D4">
-        <v>1.032182924717401</v>
+        <v>1.047263736957685</v>
       </c>
       <c r="E4">
-        <v>1.0307448014678</v>
+        <v>1.053248259563544</v>
       </c>
       <c r="F4">
-        <v>1.03807076928427</v>
+        <v>1.05992195193933</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047224830818869</v>
+        <v>1.035831036957044</v>
       </c>
       <c r="J4">
-        <v>1.032617308096226</v>
+        <v>1.044634238688564</v>
       </c>
       <c r="K4">
-        <v>1.041907847157368</v>
+        <v>1.049719546619597</v>
       </c>
       <c r="L4">
-        <v>1.040485801077576</v>
+        <v>1.055689373726623</v>
       </c>
       <c r="M4">
-        <v>1.047730440778057</v>
+        <v>1.062346888634839</v>
       </c>
       <c r="N4">
-        <v>1.014605760861526</v>
+        <v>1.018779289798479</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014730943707804</v>
+        <v>1.040383837801498</v>
       </c>
       <c r="D5">
-        <v>1.033077053224094</v>
+        <v>1.047466860728518</v>
       </c>
       <c r="E5">
-        <v>1.03180438632262</v>
+        <v>1.053497669094569</v>
       </c>
       <c r="F5">
-        <v>1.039148849207391</v>
+        <v>1.060175123015449</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047473486282154</v>
+        <v>1.035869475727683</v>
       </c>
       <c r="J5">
-        <v>1.033319918887553</v>
+        <v>1.044798000630667</v>
       </c>
       <c r="K5">
-        <v>1.042576991978511</v>
+        <v>1.049871017154528</v>
       </c>
       <c r="L5">
-        <v>1.041318166204404</v>
+        <v>1.055887345983951</v>
       </c>
       <c r="M5">
-        <v>1.048583324807728</v>
+        <v>1.062548974088989</v>
       </c>
       <c r="N5">
-        <v>1.014844752263078</v>
+        <v>1.018834362324698</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014927797766447</v>
+        <v>1.040427634645877</v>
       </c>
       <c r="D6">
-        <v>1.033226634949081</v>
+        <v>1.047500970254295</v>
       </c>
       <c r="E6">
-        <v>1.031981696408496</v>
+        <v>1.05353955885204</v>
       </c>
       <c r="F6">
-        <v>1.039329247049471</v>
+        <v>1.06021764350194</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047514923713457</v>
+        <v>1.035875912034145</v>
       </c>
       <c r="J6">
-        <v>1.033437412754828</v>
+        <v>1.044825496678601</v>
       </c>
       <c r="K6">
-        <v>1.04268885570728</v>
+        <v>1.049896444552992</v>
       </c>
       <c r="L6">
-        <v>1.041457393616904</v>
+        <v>1.05592059033485</v>
       </c>
       <c r="M6">
-        <v>1.048725978945427</v>
+        <v>1.062582908235086</v>
       </c>
       <c r="N6">
-        <v>1.014884712499049</v>
+        <v>1.018843608073619</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013569850831469</v>
+        <v>1.040126527912687</v>
       </c>
       <c r="D7">
-        <v>1.032194908892734</v>
+        <v>1.047266450828305</v>
       </c>
       <c r="E7">
-        <v>1.030759000036608</v>
+        <v>1.05325159132726</v>
       </c>
       <c r="F7">
-        <v>1.038085216170398</v>
+        <v>1.059925334021973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047228174394512</v>
+        <v>1.035831551765575</v>
       </c>
       <c r="J7">
-        <v>1.032626728569278</v>
+        <v>1.044636426903238</v>
       </c>
       <c r="K7">
-        <v>1.041916821187202</v>
+        <v>1.049721570922008</v>
       </c>
       <c r="L7">
-        <v>1.040496958893885</v>
+        <v>1.055692018776935</v>
       </c>
       <c r="M7">
-        <v>1.047741874010542</v>
+        <v>1.062349588701362</v>
       </c>
       <c r="N7">
-        <v>1.014608965548373</v>
+        <v>1.018780025758426</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00778253162184</v>
+        <v>1.038869169676123</v>
       </c>
       <c r="D8">
-        <v>1.027801411572491</v>
+        <v>1.046286808749497</v>
       </c>
       <c r="E8">
-        <v>1.02555922666374</v>
+        <v>1.052049796237225</v>
       </c>
       <c r="F8">
-        <v>1.032793681755497</v>
+        <v>1.058705267533934</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045983620652275</v>
+        <v>1.035643570603682</v>
       </c>
       <c r="J8">
-        <v>1.029167362856433</v>
+        <v>1.043846109230273</v>
       </c>
       <c r="K8">
-        <v>1.038617516395309</v>
+        <v>1.048989887044181</v>
       </c>
       <c r="L8">
-        <v>1.036403763719925</v>
+        <v>1.054737205071513</v>
       </c>
       <c r="M8">
-        <v>1.043547034400186</v>
+        <v>1.061374809826018</v>
       </c>
       <c r="N8">
-        <v>1.013431582584133</v>
+        <v>1.018514095431039</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9971323726138985</v>
+        <v>1.036658205123553</v>
       </c>
       <c r="D9">
-        <v>1.019733716970003</v>
+        <v>1.044562953149357</v>
       </c>
       <c r="E9">
-        <v>1.016035750333339</v>
+        <v>1.049939191733037</v>
       </c>
       <c r="F9">
-        <v>1.023098433316088</v>
+        <v>1.056562007857986</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043609966978247</v>
+        <v>1.035302701041656</v>
       </c>
       <c r="J9">
-        <v>1.022786802178904</v>
+        <v>1.042453395649674</v>
       </c>
       <c r="K9">
-        <v>1.032514540923335</v>
+        <v>1.047697848185785</v>
       </c>
       <c r="L9">
-        <v>1.028873907954356</v>
+        <v>1.053056958646867</v>
       </c>
       <c r="M9">
-        <v>1.03582754974891</v>
+        <v>1.059658937087342</v>
       </c>
       <c r="N9">
-        <v>1.011257532222845</v>
+        <v>1.018044890612857</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9896952150362303</v>
+        <v>1.035187422298132</v>
       </c>
       <c r="D10">
-        <v>1.014115710568767</v>
+        <v>1.043415415389303</v>
       </c>
       <c r="E10">
-        <v>1.009418945536081</v>
+        <v>1.048536986590825</v>
       </c>
       <c r="F10">
-        <v>1.016360011208727</v>
+        <v>1.055137727866639</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041898747750103</v>
+        <v>1.035069017753928</v>
       </c>
       <c r="J10">
-        <v>1.018323731283926</v>
+        <v>1.041524930056349</v>
       </c>
       <c r="K10">
-        <v>1.028234694357197</v>
+        <v>1.046834727106839</v>
       </c>
       <c r="L10">
-        <v>1.023620195294259</v>
+        <v>1.051938381983725</v>
       </c>
       <c r="M10">
-        <v>1.030440032393879</v>
+        <v>1.058516314760539</v>
       </c>
       <c r="N10">
-        <v>1.009735436616384</v>
+        <v>1.017731706649128</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9863869171212918</v>
+        <v>1.034551326732329</v>
       </c>
       <c r="D11">
-        <v>1.01162130690915</v>
+        <v>1.042918939978701</v>
       </c>
       <c r="E11">
-        <v>1.00648420337268</v>
+        <v>1.047930987322392</v>
       </c>
       <c r="F11">
-        <v>1.01337084561599</v>
+        <v>1.054522098429376</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041125445104717</v>
+        <v>1.034966310399446</v>
       </c>
       <c r="J11">
-        <v>1.016337190649069</v>
+        <v>1.04112290886999</v>
       </c>
       <c r="K11">
-        <v>1.026327340473858</v>
+        <v>1.046460581971679</v>
       </c>
       <c r="L11">
-        <v>1.021284864418225</v>
+        <v>1.051454417033012</v>
       </c>
       <c r="M11">
-        <v>1.028044937000378</v>
+        <v>1.058021868802369</v>
       </c>
       <c r="N11">
-        <v>1.009057671901413</v>
+        <v>1.017596009165598</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9851441196426332</v>
+        <v>1.034315168096726</v>
       </c>
       <c r="D12">
-        <v>1.010685043115955</v>
+        <v>1.042734590841702</v>
       </c>
       <c r="E12">
-        <v>1.005383093899003</v>
+        <v>1.047706068577781</v>
       </c>
       <c r="F12">
-        <v>1.01224924914087</v>
+        <v>1.054293591912868</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040833184723285</v>
+        <v>1.034927932333582</v>
       </c>
       <c r="J12">
-        <v>1.015590791429209</v>
+        <v>1.040973582844978</v>
       </c>
       <c r="K12">
-        <v>1.025610358218634</v>
+        <v>1.046321547585982</v>
       </c>
       <c r="L12">
-        <v>1.020407883931213</v>
+        <v>1.05127471005646</v>
       </c>
       <c r="M12">
-        <v>1.027145476295081</v>
+        <v>1.057838258411189</v>
       </c>
       <c r="N12">
-        <v>1.008802981148498</v>
+        <v>1.017545592431876</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9854113474446587</v>
+        <v>1.034365819680475</v>
       </c>
       <c r="D13">
-        <v>1.01088632280092</v>
+        <v>1.0427741314411</v>
       </c>
       <c r="E13">
-        <v>1.005619793421461</v>
+        <v>1.047754306409131</v>
       </c>
       <c r="F13">
-        <v>1.01249035560569</v>
+        <v>1.05434259981662</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040896105542118</v>
+        <v>1.034936174867197</v>
       </c>
       <c r="J13">
-        <v>1.015751288330119</v>
+        <v>1.041005613653713</v>
       </c>
       <c r="K13">
-        <v>1.025764544482698</v>
+        <v>1.046351373641648</v>
       </c>
       <c r="L13">
-        <v>1.020596438312721</v>
+        <v>1.051313255117708</v>
       </c>
       <c r="M13">
-        <v>1.027338865586549</v>
+        <v>1.057877641233081</v>
       </c>
       <c r="N13">
-        <v>1.008857748368356</v>
+        <v>1.017556407558444</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9862844760549808</v>
+        <v>1.034531803422639</v>
       </c>
       <c r="D14">
-        <v>1.011544116277025</v>
+        <v>1.042903700308956</v>
       </c>
       <c r="E14">
-        <v>1.006393413376212</v>
+        <v>1.047912391863084</v>
       </c>
       <c r="F14">
-        <v>1.013278367741864</v>
+        <v>1.054503206621618</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041101390189239</v>
+        <v>1.034963142704264</v>
       </c>
       <c r="J14">
-        <v>1.01627566903558</v>
+        <v>1.041110565476736</v>
       </c>
       <c r="K14">
-        <v>1.026268250247</v>
+        <v>1.046449090568307</v>
       </c>
       <c r="L14">
-        <v>1.021212570174766</v>
+        <v>1.051439561184914</v>
       </c>
       <c r="M14">
-        <v>1.027970790307246</v>
+        <v>1.058006690506514</v>
       </c>
       <c r="N14">
-        <v>1.009036679823858</v>
+        <v>1.017591841958398</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.986820568330627</v>
+        <v>1.03463408682775</v>
       </c>
       <c r="D15">
-        <v>1.011948101083412</v>
+        <v>1.042983540479817</v>
       </c>
       <c r="E15">
-        <v>1.006868589257713</v>
+        <v>1.048009816939815</v>
       </c>
       <c r="F15">
-        <v>1.013762374902873</v>
+        <v>1.054602183770112</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041227202379133</v>
+        <v>1.034979728284688</v>
       </c>
       <c r="J15">
-        <v>1.01659761738782</v>
+        <v>1.041175230124533</v>
       </c>
       <c r="K15">
-        <v>1.026577461360483</v>
+        <v>1.046509289243851</v>
       </c>
       <c r="L15">
-        <v>1.021590911820882</v>
+        <v>1.051517390394351</v>
       </c>
       <c r="M15">
-        <v>1.028358825013346</v>
+        <v>1.058086208533032</v>
       </c>
       <c r="N15">
-        <v>1.009146531912071</v>
+        <v>1.017613672597539</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9899128612011188</v>
+        <v>1.035229654023043</v>
       </c>
       <c r="D16">
-        <v>1.014279916670378</v>
+        <v>1.043448373714596</v>
       </c>
       <c r="E16">
-        <v>1.009612201246449</v>
+        <v>1.048577229424265</v>
       </c>
       <c r="F16">
-        <v>1.01655684110724</v>
+        <v>1.055178608319037</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041949374353388</v>
+        <v>1.035075802102839</v>
       </c>
       <c r="J16">
-        <v>1.018454400449398</v>
+        <v>1.041551611182464</v>
       </c>
       <c r="K16">
-        <v>1.028360107170294</v>
+        <v>1.04685954938268</v>
       </c>
       <c r="L16">
-        <v>1.023773872032598</v>
+        <v>1.051970509376414</v>
       </c>
       <c r="M16">
-        <v>1.030597636470029</v>
+        <v>1.058549136294318</v>
       </c>
       <c r="N16">
-        <v>1.009780012907115</v>
+        <v>1.017740710649407</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9918285233220412</v>
+        <v>1.035603442550679</v>
       </c>
       <c r="D17">
-        <v>1.015725756097784</v>
+        <v>1.043740063713463</v>
       </c>
       <c r="E17">
-        <v>1.011314175754156</v>
+        <v>1.048933465101881</v>
       </c>
       <c r="F17">
-        <v>1.018290238495109</v>
+        <v>1.055540477896514</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04239360505574</v>
+        <v>1.035135659839043</v>
       </c>
       <c r="J17">
-        <v>1.019604381944548</v>
+        <v>1.041787708575813</v>
       </c>
       <c r="K17">
-        <v>1.029463561838181</v>
+        <v>1.047079149836583</v>
       </c>
       <c r="L17">
-        <v>1.025126692647043</v>
+        <v>1.052254843126363</v>
       </c>
       <c r="M17">
-        <v>1.031984997572885</v>
+        <v>1.058839604392416</v>
       </c>
       <c r="N17">
-        <v>1.010172285761349</v>
+        <v>1.017820375308966</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9929374619154119</v>
+        <v>1.035821540640448</v>
       </c>
       <c r="D18">
-        <v>1.016563161844251</v>
+        <v>1.043910241597725</v>
       </c>
       <c r="E18">
-        <v>1.012300230569773</v>
+        <v>1.049141363641307</v>
       </c>
       <c r="F18">
-        <v>1.019294452192203</v>
+        <v>1.055751655680677</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042649609218396</v>
+        <v>1.035170427059135</v>
       </c>
       <c r="J18">
-        <v>1.020269964467993</v>
+        <v>1.041925421143653</v>
       </c>
       <c r="K18">
-        <v>1.030101989658673</v>
+        <v>1.047207199626552</v>
       </c>
       <c r="L18">
-        <v>1.025909970803838</v>
+        <v>1.052420727370932</v>
       </c>
       <c r="M18">
-        <v>1.032788246875723</v>
+        <v>1.0590090600285</v>
       </c>
       <c r="N18">
-        <v>1.010399298141649</v>
+        <v>1.017866833959889</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.993314172101779</v>
+        <v>1.035895918902626</v>
       </c>
       <c r="D19">
-        <v>1.016847703304783</v>
+        <v>1.043968274606782</v>
       </c>
       <c r="E19">
-        <v>1.01263533333827</v>
+        <v>1.049212270676434</v>
       </c>
       <c r="F19">
-        <v>1.019635718116324</v>
+        <v>1.055823679678979</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042736377626755</v>
+        <v>1.035182256869564</v>
       </c>
       <c r="J19">
-        <v>1.020496043524383</v>
+        <v>1.041972377702905</v>
       </c>
       <c r="K19">
-        <v>1.030318806121295</v>
+        <v>1.047250854573508</v>
       </c>
       <c r="L19">
-        <v>1.026176078077715</v>
+        <v>1.052477295882892</v>
       </c>
       <c r="M19">
-        <v>1.033061134183056</v>
+        <v>1.059066845159012</v>
       </c>
       <c r="N19">
-        <v>1.0104764030901</v>
+        <v>1.017882673723131</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9916238684885917</v>
+        <v>1.035563330963162</v>
       </c>
       <c r="D20">
-        <v>1.01557124753102</v>
+        <v>1.043708763984903</v>
       </c>
       <c r="E20">
-        <v>1.01113226464641</v>
+        <v>1.048895232759896</v>
       </c>
       <c r="F20">
-        <v>1.018104973596516</v>
+        <v>1.055501641805073</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042346265937846</v>
+        <v>1.035129252849279</v>
       </c>
       <c r="J20">
-        <v>1.019481538617142</v>
+        <v>1.041762377454412</v>
       </c>
       <c r="K20">
-        <v>1.02934571191207</v>
+        <v>1.047055592857779</v>
       </c>
       <c r="L20">
-        <v>1.024982150827552</v>
+        <v>1.052224332952048</v>
       </c>
       <c r="M20">
-        <v>1.031836768110203</v>
+        <v>1.058808436749955</v>
       </c>
       <c r="N20">
-        <v>1.010130385051915</v>
+        <v>1.017811828910682</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9860277526277733</v>
+        <v>1.03448292214953</v>
       </c>
       <c r="D21">
-        <v>1.011350684892127</v>
+        <v>1.042865543730321</v>
       </c>
       <c r="E21">
-        <v>1.006165910311414</v>
+        <v>1.047865834757534</v>
       </c>
       <c r="F21">
-        <v>1.013046634096537</v>
+        <v>1.054455907335869</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041041078960345</v>
+        <v>1.034955207637591</v>
       </c>
       <c r="J21">
-        <v>1.016121490211094</v>
+        <v>1.041079659702781</v>
       </c>
       <c r="K21">
-        <v>1.026120159361863</v>
+        <v>1.046420317022763</v>
       </c>
       <c r="L21">
-        <v>1.021031401701183</v>
+        <v>1.051402365554067</v>
       </c>
       <c r="M21">
-        <v>1.027784979042816</v>
+        <v>1.057968687353574</v>
       </c>
       <c r="N21">
-        <v>1.008984071192105</v>
+        <v>1.017581407756775</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.982428150903824</v>
+        <v>1.033804295421076</v>
       </c>
       <c r="D22">
-        <v>1.008640502704991</v>
+        <v>1.042335748313315</v>
       </c>
       <c r="E22">
-        <v>1.002979331207461</v>
+        <v>1.047219632452334</v>
       </c>
       <c r="F22">
-        <v>1.009800644515023</v>
+        <v>1.053799371777887</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040191314947207</v>
+        <v>1.034844459735689</v>
       </c>
       <c r="J22">
-        <v>1.013959444570754</v>
+        <v>1.040650423148039</v>
       </c>
       <c r="K22">
-        <v>1.024042711124753</v>
+        <v>1.046020545988657</v>
       </c>
       <c r="L22">
-        <v>1.018491997115812</v>
+        <v>1.050885904845221</v>
       </c>
       <c r="M22">
-        <v>1.025180417243249</v>
+        <v>1.057440986831182</v>
       </c>
       <c r="N22">
-        <v>1.008246263897027</v>
+        <v>1.017436459855976</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9843443137124723</v>
+        <v>1.034163984547213</v>
       </c>
       <c r="D23">
-        <v>1.010082739947914</v>
+        <v>1.042616567278001</v>
       </c>
       <c r="E23">
-        <v>1.004674862116466</v>
+        <v>1.047562099278132</v>
       </c>
       <c r="F23">
-        <v>1.0115278218129</v>
+        <v>1.054147322300582</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040644610725249</v>
+        <v>1.034903294122689</v>
       </c>
       <c r="J23">
-        <v>1.015110412577765</v>
+        <v>1.040877967806171</v>
       </c>
       <c r="K23">
-        <v>1.025148819937049</v>
+        <v>1.04623250479554</v>
       </c>
       <c r="L23">
-        <v>1.019843595671302</v>
+        <v>1.051159657561259</v>
       </c>
       <c r="M23">
-        <v>1.026566713621681</v>
+        <v>1.05772070360576</v>
       </c>
       <c r="N23">
-        <v>1.008639054096031</v>
+        <v>1.017513306268282</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9917163692109429</v>
+        <v>1.035581455435727</v>
       </c>
       <c r="D24">
-        <v>1.015641081588184</v>
+        <v>1.043722906861382</v>
       </c>
       <c r="E24">
-        <v>1.01121448304299</v>
+        <v>1.048912507962706</v>
       </c>
       <c r="F24">
-        <v>1.018188707950297</v>
+        <v>1.055519189837642</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042367666040541</v>
+        <v>1.035132148345757</v>
       </c>
       <c r="J24">
-        <v>1.01953706221497</v>
+        <v>1.041773823494949</v>
       </c>
       <c r="K24">
-        <v>1.02939897925937</v>
+        <v>1.047066237364464</v>
       </c>
       <c r="L24">
-        <v>1.025047480942498</v>
+        <v>1.052238119071756</v>
       </c>
       <c r="M24">
-        <v>1.03190376505499</v>
+        <v>1.058822519971835</v>
       </c>
       <c r="N24">
-        <v>1.010149323712611</v>
+        <v>1.017815690686176</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9999425514332753</v>
+        <v>1.037229233951417</v>
       </c>
       <c r="D25">
-        <v>1.021860052301517</v>
+        <v>1.045008317953137</v>
       </c>
       <c r="E25">
-        <v>1.018543059360062</v>
+        <v>1.050483982251491</v>
       </c>
       <c r="F25">
-        <v>1.025651376483149</v>
+        <v>1.057115294497856</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044245743816743</v>
+        <v>1.035391960955286</v>
       </c>
       <c r="J25">
-        <v>1.024471849106442</v>
+        <v>1.0428134480417</v>
       </c>
       <c r="K25">
-        <v>1.034128238739104</v>
+        <v>1.048032186560517</v>
       </c>
       <c r="L25">
-        <v>1.030860179780467</v>
+        <v>1.053491067918914</v>
       </c>
       <c r="M25">
-        <v>1.037864123031209</v>
+        <v>1.060102308902541</v>
       </c>
       <c r="N25">
-        <v>1.011831937973146</v>
+        <v>1.018166260152694</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_251/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_251/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038545788421697</v>
+        <v>1.006263096405677</v>
       </c>
       <c r="D2">
-        <v>1.046034768426814</v>
+        <v>1.026648946996581</v>
       </c>
       <c r="E2">
-        <v>1.051740884680747</v>
+        <v>1.024196981272109</v>
       </c>
       <c r="F2">
-        <v>1.058391620907857</v>
+        <v>1.031407140839427</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035594522201494</v>
+        <v>1.045651219715635</v>
       </c>
       <c r="J2">
-        <v>1.043642641997537</v>
+        <v>1.028258079549102</v>
       </c>
       <c r="K2">
-        <v>1.048801334733194</v>
+        <v>1.037749095927234</v>
       </c>
       <c r="L2">
-        <v>1.05449154759217</v>
+        <v>1.03532920006109</v>
       </c>
       <c r="M2">
-        <v>1.06112398211486</v>
+        <v>1.042445600424398</v>
       </c>
       <c r="N2">
-        <v>1.018445592372575</v>
+        <v>1.013121938854099</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039503037091454</v>
+        <v>1.010723821522191</v>
       </c>
       <c r="D3">
-        <v>1.046780739190166</v>
+        <v>1.030033574456639</v>
       </c>
       <c r="E3">
-        <v>1.052655513223995</v>
+        <v>1.028199676083454</v>
       </c>
       <c r="F3">
-        <v>1.059320223615432</v>
+        <v>1.035480928600315</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035738884518591</v>
+        <v>1.046620545378705</v>
       </c>
       <c r="J3">
-        <v>1.044244689193413</v>
+        <v>1.030926352903817</v>
       </c>
       <c r="K3">
-        <v>1.049359037196958</v>
+        <v>1.040296067511365</v>
       </c>
       <c r="L3">
-        <v>1.0552186208268</v>
+        <v>1.038484016207555</v>
       </c>
       <c r="M3">
-        <v>1.061866318203179</v>
+        <v>1.045679092613777</v>
       </c>
       <c r="N3">
-        <v>1.018648242489969</v>
+        <v>1.014030385486349</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04012304373128</v>
+        <v>1.013554075096835</v>
       </c>
       <c r="D4">
-        <v>1.047263736957685</v>
+        <v>1.032182924717401</v>
       </c>
       <c r="E4">
-        <v>1.053248259563544</v>
+        <v>1.0307448014678</v>
       </c>
       <c r="F4">
-        <v>1.05992195193933</v>
+        <v>1.038070769284269</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035831036957044</v>
+        <v>1.047224830818868</v>
       </c>
       <c r="J4">
-        <v>1.044634238688564</v>
+        <v>1.032617308096226</v>
       </c>
       <c r="K4">
-        <v>1.049719546619597</v>
+        <v>1.041907847157368</v>
       </c>
       <c r="L4">
-        <v>1.055689373726623</v>
+        <v>1.040485801077576</v>
       </c>
       <c r="M4">
-        <v>1.062346888634839</v>
+        <v>1.047730440778056</v>
       </c>
       <c r="N4">
-        <v>1.018779289798479</v>
+        <v>1.014605760861526</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040383837801498</v>
+        <v>1.014730943707805</v>
       </c>
       <c r="D5">
-        <v>1.047466860728518</v>
+        <v>1.033077053224094</v>
       </c>
       <c r="E5">
-        <v>1.053497669094569</v>
+        <v>1.031804386322621</v>
       </c>
       <c r="F5">
-        <v>1.060175123015449</v>
+        <v>1.039148849207392</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035869475727683</v>
+        <v>1.047473486282154</v>
       </c>
       <c r="J5">
-        <v>1.044798000630667</v>
+        <v>1.033319918887554</v>
       </c>
       <c r="K5">
-        <v>1.049871017154528</v>
+        <v>1.042576991978512</v>
       </c>
       <c r="L5">
-        <v>1.055887345983951</v>
+        <v>1.041318166204405</v>
       </c>
       <c r="M5">
-        <v>1.062548974088989</v>
+        <v>1.048583324807729</v>
       </c>
       <c r="N5">
-        <v>1.018834362324698</v>
+        <v>1.014844752263078</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040427634645877</v>
+        <v>1.014927797766448</v>
       </c>
       <c r="D6">
-        <v>1.047500970254295</v>
+        <v>1.033226634949082</v>
       </c>
       <c r="E6">
-        <v>1.05353955885204</v>
+        <v>1.031981696408497</v>
       </c>
       <c r="F6">
-        <v>1.06021764350194</v>
+        <v>1.039329247049472</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035875912034145</v>
+        <v>1.047514923713457</v>
       </c>
       <c r="J6">
-        <v>1.044825496678601</v>
+        <v>1.033437412754828</v>
       </c>
       <c r="K6">
-        <v>1.049896444552992</v>
+        <v>1.042688855707281</v>
       </c>
       <c r="L6">
-        <v>1.05592059033485</v>
+        <v>1.041457393616905</v>
       </c>
       <c r="M6">
-        <v>1.062582908235086</v>
+        <v>1.048725978945428</v>
       </c>
       <c r="N6">
-        <v>1.018843608073619</v>
+        <v>1.014884712499049</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040126527912687</v>
+        <v>1.01356985083147</v>
       </c>
       <c r="D7">
-        <v>1.047266450828305</v>
+        <v>1.032194908892734</v>
       </c>
       <c r="E7">
-        <v>1.05325159132726</v>
+        <v>1.030759000036608</v>
       </c>
       <c r="F7">
-        <v>1.059925334021973</v>
+        <v>1.038085216170398</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035831551765575</v>
+        <v>1.047228174394512</v>
       </c>
       <c r="J7">
-        <v>1.044636426903238</v>
+        <v>1.032626728569278</v>
       </c>
       <c r="K7">
-        <v>1.049721570922008</v>
+        <v>1.041916821187202</v>
       </c>
       <c r="L7">
-        <v>1.055692018776935</v>
+        <v>1.040496958893885</v>
       </c>
       <c r="M7">
-        <v>1.062349588701362</v>
+        <v>1.047741874010543</v>
       </c>
       <c r="N7">
-        <v>1.018780025758426</v>
+        <v>1.014608965548373</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038869169676123</v>
+        <v>1.00778253162184</v>
       </c>
       <c r="D8">
-        <v>1.046286808749497</v>
+        <v>1.027801411572492</v>
       </c>
       <c r="E8">
-        <v>1.052049796237225</v>
+        <v>1.02555922666374</v>
       </c>
       <c r="F8">
-        <v>1.058705267533934</v>
+        <v>1.032793681755497</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035643570603682</v>
+        <v>1.045983620652275</v>
       </c>
       <c r="J8">
-        <v>1.043846109230273</v>
+        <v>1.029167362856433</v>
       </c>
       <c r="K8">
-        <v>1.048989887044181</v>
+        <v>1.038617516395309</v>
       </c>
       <c r="L8">
-        <v>1.054737205071513</v>
+        <v>1.036403763719925</v>
       </c>
       <c r="M8">
-        <v>1.061374809826018</v>
+        <v>1.043547034400185</v>
       </c>
       <c r="N8">
-        <v>1.018514095431039</v>
+        <v>1.013431582584133</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036658205123553</v>
+        <v>0.9971323726138996</v>
       </c>
       <c r="D9">
-        <v>1.044562953149357</v>
+        <v>1.019733716970004</v>
       </c>
       <c r="E9">
-        <v>1.049939191733037</v>
+        <v>1.01603575033334</v>
       </c>
       <c r="F9">
-        <v>1.056562007857986</v>
+        <v>1.023098433316089</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035302701041656</v>
+        <v>1.043609966978248</v>
       </c>
       <c r="J9">
-        <v>1.042453395649674</v>
+        <v>1.022786802178905</v>
       </c>
       <c r="K9">
-        <v>1.047697848185785</v>
+        <v>1.032514540923336</v>
       </c>
       <c r="L9">
-        <v>1.053056958646867</v>
+        <v>1.028873907954358</v>
       </c>
       <c r="M9">
-        <v>1.059658937087342</v>
+        <v>1.035827549748912</v>
       </c>
       <c r="N9">
-        <v>1.018044890612857</v>
+        <v>1.011257532222845</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035187422298132</v>
+        <v>0.9896952150362306</v>
       </c>
       <c r="D10">
-        <v>1.043415415389303</v>
+        <v>1.014115710568767</v>
       </c>
       <c r="E10">
-        <v>1.048536986590825</v>
+        <v>1.009418945536081</v>
       </c>
       <c r="F10">
-        <v>1.055137727866639</v>
+        <v>1.016360011208727</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035069017753928</v>
+        <v>1.041898747750104</v>
       </c>
       <c r="J10">
-        <v>1.041524930056349</v>
+        <v>1.018323731283926</v>
       </c>
       <c r="K10">
-        <v>1.046834727106839</v>
+        <v>1.028234694357198</v>
       </c>
       <c r="L10">
-        <v>1.051938381983725</v>
+        <v>1.023620195294259</v>
       </c>
       <c r="M10">
-        <v>1.058516314760539</v>
+        <v>1.030440032393879</v>
       </c>
       <c r="N10">
-        <v>1.017731706649128</v>
+        <v>1.009735436616384</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034551326732329</v>
+        <v>0.9863869171212917</v>
       </c>
       <c r="D11">
-        <v>1.042918939978701</v>
+        <v>1.01162130690915</v>
       </c>
       <c r="E11">
-        <v>1.047930987322392</v>
+        <v>1.00648420337268</v>
       </c>
       <c r="F11">
-        <v>1.054522098429376</v>
+        <v>1.01337084561599</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034966310399446</v>
+        <v>1.041125445104717</v>
       </c>
       <c r="J11">
-        <v>1.04112290886999</v>
+        <v>1.016337190649069</v>
       </c>
       <c r="K11">
-        <v>1.046460581971679</v>
+        <v>1.026327340473858</v>
       </c>
       <c r="L11">
-        <v>1.051454417033012</v>
+        <v>1.021284864418225</v>
       </c>
       <c r="M11">
-        <v>1.058021868802369</v>
+        <v>1.028044937000378</v>
       </c>
       <c r="N11">
-        <v>1.017596009165598</v>
+        <v>1.009057671901412</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034315168096726</v>
+        <v>0.9851441196426335</v>
       </c>
       <c r="D12">
-        <v>1.042734590841702</v>
+        <v>1.010685043115955</v>
       </c>
       <c r="E12">
-        <v>1.047706068577781</v>
+        <v>1.005383093899004</v>
       </c>
       <c r="F12">
-        <v>1.054293591912868</v>
+        <v>1.012249249140871</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034927932333582</v>
+        <v>1.040833184723285</v>
       </c>
       <c r="J12">
-        <v>1.040973582844978</v>
+        <v>1.015590791429209</v>
       </c>
       <c r="K12">
-        <v>1.046321547585982</v>
+        <v>1.025610358218635</v>
       </c>
       <c r="L12">
-        <v>1.05127471005646</v>
+        <v>1.020407883931214</v>
       </c>
       <c r="M12">
-        <v>1.057838258411189</v>
+        <v>1.027145476295082</v>
       </c>
       <c r="N12">
-        <v>1.017545592431876</v>
+        <v>1.008802981148498</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034365819680475</v>
+        <v>0.9854113474446596</v>
       </c>
       <c r="D13">
-        <v>1.0427741314411</v>
+        <v>1.010886322800921</v>
       </c>
       <c r="E13">
-        <v>1.047754306409131</v>
+        <v>1.005619793421463</v>
       </c>
       <c r="F13">
-        <v>1.05434259981662</v>
+        <v>1.012490355605691</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034936174867197</v>
+        <v>1.040896105542119</v>
       </c>
       <c r="J13">
-        <v>1.041005613653713</v>
+        <v>1.01575128833012</v>
       </c>
       <c r="K13">
-        <v>1.046351373641648</v>
+        <v>1.025764544482699</v>
       </c>
       <c r="L13">
-        <v>1.051313255117708</v>
+        <v>1.020596438312722</v>
       </c>
       <c r="M13">
-        <v>1.057877641233081</v>
+        <v>1.02733886558655</v>
       </c>
       <c r="N13">
-        <v>1.017556407558444</v>
+        <v>1.008857748368356</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034531803422639</v>
+        <v>0.9862844760549813</v>
       </c>
       <c r="D14">
-        <v>1.042903700308956</v>
+        <v>1.011544116277026</v>
       </c>
       <c r="E14">
-        <v>1.047912391863084</v>
+        <v>1.006393413376213</v>
       </c>
       <c r="F14">
-        <v>1.054503206621618</v>
+        <v>1.013278367741865</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034963142704264</v>
+        <v>1.041101390189239</v>
       </c>
       <c r="J14">
-        <v>1.041110565476736</v>
+        <v>1.01627566903558</v>
       </c>
       <c r="K14">
-        <v>1.046449090568307</v>
+        <v>1.026268250247</v>
       </c>
       <c r="L14">
-        <v>1.051439561184914</v>
+        <v>1.021212570174767</v>
       </c>
       <c r="M14">
-        <v>1.058006690506514</v>
+        <v>1.027970790307247</v>
       </c>
       <c r="N14">
-        <v>1.017591841958398</v>
+        <v>1.009036679823858</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03463408682775</v>
+        <v>0.986820568330627</v>
       </c>
       <c r="D15">
-        <v>1.042983540479817</v>
+        <v>1.011948101083412</v>
       </c>
       <c r="E15">
-        <v>1.048009816939815</v>
+        <v>1.006868589257712</v>
       </c>
       <c r="F15">
-        <v>1.054602183770112</v>
+        <v>1.013762374902873</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034979728284688</v>
+        <v>1.041227202379133</v>
       </c>
       <c r="J15">
-        <v>1.041175230124533</v>
+        <v>1.01659761738782</v>
       </c>
       <c r="K15">
-        <v>1.046509289243851</v>
+        <v>1.026577461360483</v>
       </c>
       <c r="L15">
-        <v>1.051517390394351</v>
+        <v>1.021590911820882</v>
       </c>
       <c r="M15">
-        <v>1.058086208533032</v>
+        <v>1.028358825013346</v>
       </c>
       <c r="N15">
-        <v>1.017613672597539</v>
+        <v>1.009146531912071</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035229654023043</v>
+        <v>0.9899128612011197</v>
       </c>
       <c r="D16">
-        <v>1.043448373714596</v>
+        <v>1.014279916670378</v>
       </c>
       <c r="E16">
-        <v>1.048577229424265</v>
+        <v>1.00961220124645</v>
       </c>
       <c r="F16">
-        <v>1.055178608319037</v>
+        <v>1.016556841107241</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035075802102839</v>
+        <v>1.041949374353389</v>
       </c>
       <c r="J16">
-        <v>1.041551611182464</v>
+        <v>1.018454400449399</v>
       </c>
       <c r="K16">
-        <v>1.04685954938268</v>
+        <v>1.028360107170295</v>
       </c>
       <c r="L16">
-        <v>1.051970509376414</v>
+        <v>1.023773872032599</v>
       </c>
       <c r="M16">
-        <v>1.058549136294318</v>
+        <v>1.03059763647003</v>
       </c>
       <c r="N16">
-        <v>1.017740710649407</v>
+        <v>1.009780012907115</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035603442550679</v>
+        <v>0.9918285233220422</v>
       </c>
       <c r="D17">
-        <v>1.043740063713463</v>
+        <v>1.015725756097785</v>
       </c>
       <c r="E17">
-        <v>1.048933465101881</v>
+        <v>1.011314175754156</v>
       </c>
       <c r="F17">
-        <v>1.055540477896514</v>
+        <v>1.01829023849511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035135659839043</v>
+        <v>1.04239360505574</v>
       </c>
       <c r="J17">
-        <v>1.041787708575813</v>
+        <v>1.019604381944549</v>
       </c>
       <c r="K17">
-        <v>1.047079149836583</v>
+        <v>1.029463561838182</v>
       </c>
       <c r="L17">
-        <v>1.052254843126363</v>
+        <v>1.025126692647043</v>
       </c>
       <c r="M17">
-        <v>1.058839604392416</v>
+        <v>1.031984997572885</v>
       </c>
       <c r="N17">
-        <v>1.017820375308966</v>
+        <v>1.010172285761349</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>1.035821540640448</v>
+        <v>0.9929374619154117</v>
       </c>
       <c r="D18">
-        <v>1.043910241597725</v>
+        <v>1.01656316184425</v>
       </c>
       <c r="E18">
-        <v>1.049141363641307</v>
+        <v>1.012300230569773</v>
       </c>
       <c r="F18">
-        <v>1.055751655680677</v>
+        <v>1.019294452192203</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035170427059135</v>
+        <v>1.042649609218396</v>
       </c>
       <c r="J18">
-        <v>1.041925421143653</v>
+        <v>1.020269964467993</v>
       </c>
       <c r="K18">
-        <v>1.047207199626552</v>
+        <v>1.030101989658673</v>
       </c>
       <c r="L18">
-        <v>1.052420727370932</v>
+        <v>1.025909970803838</v>
       </c>
       <c r="M18">
-        <v>1.0590090600285</v>
+        <v>1.032788246875722</v>
       </c>
       <c r="N18">
-        <v>1.017866833959889</v>
+        <v>1.010399298141649</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035895918902626</v>
+        <v>0.9933141721017782</v>
       </c>
       <c r="D19">
-        <v>1.043968274606782</v>
+        <v>1.016847703304782</v>
       </c>
       <c r="E19">
-        <v>1.049212270676434</v>
+        <v>1.012635333338269</v>
       </c>
       <c r="F19">
-        <v>1.055823679678979</v>
+        <v>1.019635718116324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035182256869564</v>
+        <v>1.042736377626755</v>
       </c>
       <c r="J19">
-        <v>1.041972377702905</v>
+        <v>1.020496043524383</v>
       </c>
       <c r="K19">
-        <v>1.047250854573508</v>
+        <v>1.030318806121295</v>
       </c>
       <c r="L19">
-        <v>1.052477295882892</v>
+        <v>1.026176078077714</v>
       </c>
       <c r="M19">
-        <v>1.059066845159012</v>
+        <v>1.033061134183055</v>
       </c>
       <c r="N19">
-        <v>1.017882673723131</v>
+        <v>1.0104764030901</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035563330963162</v>
+        <v>0.991623868488592</v>
       </c>
       <c r="D20">
-        <v>1.043708763984903</v>
+        <v>1.01557124753102</v>
       </c>
       <c r="E20">
-        <v>1.048895232759896</v>
+        <v>1.01113226464641</v>
       </c>
       <c r="F20">
-        <v>1.055501641805073</v>
+        <v>1.018104973596517</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035129252849279</v>
+        <v>1.042346265937846</v>
       </c>
       <c r="J20">
-        <v>1.041762377454412</v>
+        <v>1.019481538617142</v>
       </c>
       <c r="K20">
-        <v>1.047055592857779</v>
+        <v>1.02934571191207</v>
       </c>
       <c r="L20">
-        <v>1.052224332952048</v>
+        <v>1.024982150827552</v>
       </c>
       <c r="M20">
-        <v>1.058808436749955</v>
+        <v>1.031836768110203</v>
       </c>
       <c r="N20">
-        <v>1.017811828910682</v>
+        <v>1.010130385051915</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03448292214953</v>
+        <v>0.9860277526277735</v>
       </c>
       <c r="D21">
-        <v>1.042865543730321</v>
+        <v>1.011350684892128</v>
       </c>
       <c r="E21">
-        <v>1.047865834757534</v>
+        <v>1.006165910311414</v>
       </c>
       <c r="F21">
-        <v>1.054455907335869</v>
+        <v>1.013046634096537</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034955207637591</v>
+        <v>1.041041078960345</v>
       </c>
       <c r="J21">
-        <v>1.041079659702781</v>
+        <v>1.016121490211094</v>
       </c>
       <c r="K21">
-        <v>1.046420317022763</v>
+        <v>1.026120159361864</v>
       </c>
       <c r="L21">
-        <v>1.051402365554067</v>
+        <v>1.021031401701182</v>
       </c>
       <c r="M21">
-        <v>1.057968687353574</v>
+        <v>1.027784979042816</v>
       </c>
       <c r="N21">
-        <v>1.017581407756775</v>
+        <v>1.008984071192105</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033804295421076</v>
+        <v>0.9824281509038236</v>
       </c>
       <c r="D22">
-        <v>1.042335748313315</v>
+        <v>1.008640502704991</v>
       </c>
       <c r="E22">
-        <v>1.047219632452334</v>
+        <v>1.00297933120746</v>
       </c>
       <c r="F22">
-        <v>1.053799371777887</v>
+        <v>1.009800644515022</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034844459735689</v>
+        <v>1.040191314947207</v>
       </c>
       <c r="J22">
-        <v>1.040650423148039</v>
+        <v>1.013959444570753</v>
       </c>
       <c r="K22">
-        <v>1.046020545988657</v>
+        <v>1.024042711124753</v>
       </c>
       <c r="L22">
-        <v>1.050885904845221</v>
+        <v>1.018491997115812</v>
       </c>
       <c r="M22">
-        <v>1.057440986831182</v>
+        <v>1.025180417243248</v>
       </c>
       <c r="N22">
-        <v>1.017436459855976</v>
+        <v>1.008246263897027</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034163984547213</v>
+        <v>0.9843443137124717</v>
       </c>
       <c r="D23">
-        <v>1.042616567278001</v>
+        <v>1.010082739947914</v>
       </c>
       <c r="E23">
-        <v>1.047562099278132</v>
+        <v>1.004674862116466</v>
       </c>
       <c r="F23">
-        <v>1.054147322300582</v>
+        <v>1.011527821812899</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034903294122689</v>
+        <v>1.040644610725249</v>
       </c>
       <c r="J23">
-        <v>1.040877967806171</v>
+        <v>1.015110412577764</v>
       </c>
       <c r="K23">
-        <v>1.04623250479554</v>
+        <v>1.025148819937049</v>
       </c>
       <c r="L23">
-        <v>1.051159657561259</v>
+        <v>1.019843595671301</v>
       </c>
       <c r="M23">
-        <v>1.05772070360576</v>
+        <v>1.02656671362168</v>
       </c>
       <c r="N23">
-        <v>1.017513306268282</v>
+        <v>1.008639054096031</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035581455435727</v>
+        <v>0.9917163692109431</v>
       </c>
       <c r="D24">
-        <v>1.043722906861382</v>
+        <v>1.015641081588184</v>
       </c>
       <c r="E24">
-        <v>1.048912507962706</v>
+        <v>1.01121448304299</v>
       </c>
       <c r="F24">
-        <v>1.055519189837642</v>
+        <v>1.018188707950297</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035132148345757</v>
+        <v>1.042367666040541</v>
       </c>
       <c r="J24">
-        <v>1.041773823494949</v>
+        <v>1.01953706221497</v>
       </c>
       <c r="K24">
-        <v>1.047066237364464</v>
+        <v>1.02939897925937</v>
       </c>
       <c r="L24">
-        <v>1.052238119071756</v>
+        <v>1.025047480942498</v>
       </c>
       <c r="M24">
-        <v>1.058822519971835</v>
+        <v>1.03190376505499</v>
       </c>
       <c r="N24">
-        <v>1.017815690686176</v>
+        <v>1.010149323712611</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037229233951417</v>
+        <v>0.9999425514332748</v>
       </c>
       <c r="D25">
-        <v>1.045008317953137</v>
+        <v>1.021860052301516</v>
       </c>
       <c r="E25">
-        <v>1.050483982251491</v>
+        <v>1.018543059360062</v>
       </c>
       <c r="F25">
-        <v>1.057115294497856</v>
+        <v>1.025651376483148</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035391960955286</v>
+        <v>1.044245743816743</v>
       </c>
       <c r="J25">
-        <v>1.0428134480417</v>
+        <v>1.024471849106442</v>
       </c>
       <c r="K25">
-        <v>1.048032186560517</v>
+        <v>1.034128238739103</v>
       </c>
       <c r="L25">
-        <v>1.053491067918914</v>
+        <v>1.030860179780466</v>
       </c>
       <c r="M25">
-        <v>1.060102308902541</v>
+        <v>1.037864123031208</v>
       </c>
       <c r="N25">
-        <v>1.018166260152694</v>
+        <v>1.011831937973145</v>
       </c>
     </row>
   </sheetData>
